--- a/raw_files/cfu_data.xlsx
+++ b/raw_files/cfu_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E3A6EE-51EB-4F80-847E-C4D3CFD058B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="274">
   <si>
     <t>time</t>
   </si>
@@ -836,12 +835,18 @@
   </si>
   <si>
     <t>t3_control.legumes_fungi_3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1152,16 +1157,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F253"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F379"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="K174" sqref="K174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1201,7 +1211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1221,7 +1231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1241,7 +1251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1261,7 +1271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1281,7 +1291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1301,7 +1311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1321,7 +1331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1341,7 +1351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1361,7 +1371,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1381,7 +1391,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1401,7 +1411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1421,7 +1431,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1441,7 +1451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1461,7 +1471,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1481,7 +1491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1501,7 +1511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1521,7 +1531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1541,7 +1551,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1561,7 +1571,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1581,7 +1591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1601,7 +1611,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1621,7 +1631,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1641,7 +1651,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1661,7 +1671,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1681,7 +1691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1701,7 +1711,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1721,7 +1731,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1741,7 +1751,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1761,7 +1771,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1781,7 +1791,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1801,7 +1811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1821,7 +1831,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1841,7 +1851,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1861,7 +1871,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1881,7 +1891,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1901,7 +1911,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -1921,7 +1931,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1941,7 +1951,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -1961,7 +1971,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -1981,7 +1991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -2001,7 +2011,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2021,7 +2031,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -2041,7 +2051,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -2061,7 +2071,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -2081,7 +2091,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -2101,7 +2111,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -2121,7 +2131,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -2141,7 +2151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -2161,7 +2171,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -2181,7 +2191,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -2201,7 +2211,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2221,7 +2231,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -2241,7 +2251,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -2261,7 +2271,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2281,7 +2291,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -2301,7 +2311,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -2321,7 +2331,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -2341,7 +2351,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -2361,7 +2371,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -2381,7 +2391,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -2401,7 +2411,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -2421,7 +2431,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -2441,7 +2451,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -2461,7 +2471,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -2481,7 +2491,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -2501,7 +2511,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -2521,7 +2531,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -2541,7 +2551,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -2561,7 +2571,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -2581,7 +2591,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -2601,7 +2611,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -2621,7 +2631,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -2641,7 +2651,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -2661,7 +2671,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -2681,7 +2691,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -2701,7 +2711,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -2721,7 +2731,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -2741,7 +2751,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -2761,7 +2771,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -2781,7 +2791,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -2801,7 +2811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -2821,7 +2831,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -2841,7 +2851,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -2861,7 +2871,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -2881,7 +2891,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -2901,7 +2911,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -2921,7 +2931,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -2941,7 +2951,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -2961,7 +2971,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -2981,7 +2991,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -3001,7 +3011,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3021,7 +3031,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -3041,7 +3051,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -3061,7 +3071,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -3081,7 +3091,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -3101,7 +3111,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -3121,7 +3131,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -3141,7 +3151,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -3161,7 +3171,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -3181,7 +3191,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -3201,7 +3211,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -3221,7 +3231,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -3241,7 +3251,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -3261,7 +3271,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -3281,7 +3291,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>15</v>
       </c>
@@ -3301,7 +3311,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -3321,7 +3331,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>15</v>
       </c>
@@ -3341,7 +3351,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>15</v>
       </c>
@@ -3361,7 +3371,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -3381,7 +3391,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -3401,7 +3411,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -3421,7 +3431,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -3441,7 +3451,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -3461,7 +3471,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>15</v>
       </c>
@@ -3481,7 +3491,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -3501,7 +3511,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -3521,7 +3531,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -3541,7 +3551,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -3561,7 +3571,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -3581,7 +3591,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -3601,7 +3611,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -3621,7 +3631,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -3641,7 +3651,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -3661,7 +3671,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -3681,7 +3691,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -3701,7 +3711,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>16</v>
       </c>
@@ -3721,7 +3731,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -3741,7 +3751,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -3761,7 +3771,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -3781,7 +3791,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -3801,7 +3811,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -3821,7 +3831,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -3841,7 +3851,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -3861,7 +3871,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>16</v>
       </c>
@@ -3881,7 +3891,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>16</v>
       </c>
@@ -3901,7 +3911,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>16</v>
       </c>
@@ -3921,7 +3931,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>16</v>
       </c>
@@ -3941,7 +3951,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>16</v>
       </c>
@@ -3961,7 +3971,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>16</v>
       </c>
@@ -3981,7 +3991,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>16</v>
       </c>
@@ -4001,7 +4011,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>16</v>
       </c>
@@ -4021,7 +4031,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>16</v>
       </c>
@@ -4041,7 +4051,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>16</v>
       </c>
@@ -4061,7 +4071,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>16</v>
       </c>
@@ -4081,7 +4091,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>16</v>
       </c>
@@ -4101,7 +4111,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -4121,7 +4131,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -4141,7 +4151,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -4161,7 +4171,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -4181,7 +4191,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -4201,7 +4211,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -4221,7 +4231,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -4241,7 +4251,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -4261,7 +4271,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -4281,7 +4291,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -4301,7 +4311,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -4321,7 +4331,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -4341,7 +4351,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>17</v>
       </c>
@@ -4361,7 +4371,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>17</v>
       </c>
@@ -4381,7 +4391,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -4401,7 +4411,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -4421,7 +4431,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -4441,7 +4451,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -4461,7 +4471,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -4481,7 +4491,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -4501,7 +4511,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -4521,7 +4531,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -4541,855 +4551,897 @@
         <v>187</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
       </c>
       <c r="C170">
-        <v>60500</v>
+        <v>690000</v>
       </c>
       <c r="D170" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E170">
         <v>1</v>
       </c>
-      <c r="F170" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F170" t="str">
+        <f>A170&amp;"_"&amp;B170&amp;"_"&amp;"bact"&amp;"_"&amp;E170</f>
+        <v>t4_control_bact_1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
       </c>
       <c r="C171">
-        <v>99000</v>
+        <v>1190000</v>
       </c>
       <c r="D171" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E171">
         <v>2</v>
       </c>
-      <c r="F171" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F171" t="str">
+        <f>A171&amp;"_"&amp;B171&amp;"_"&amp;"bact"&amp;"_"&amp;E171</f>
+        <v>t4_control_bact_2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
       </c>
       <c r="C172">
-        <v>89500</v>
+        <v>835000</v>
       </c>
       <c r="D172" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E172">
         <v>3</v>
       </c>
-      <c r="F172" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F172" t="str">
+        <f>A172&amp;"_"&amp;B172&amp;"_"&amp;"bact"&amp;"_"&amp;E172</f>
+        <v>t4_control_bact_3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B173" t="s">
         <v>9</v>
       </c>
       <c r="C173">
-        <v>90500</v>
+        <v>1700000</v>
       </c>
       <c r="D173" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E173">
         <v>1</v>
       </c>
-      <c r="F173" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F173" t="str">
+        <f>A173&amp;"_"&amp;B173&amp;"_"&amp;"bact"&amp;"_"&amp;E173</f>
+        <v>t4_control.amf_bact_1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B174" t="s">
         <v>9</v>
       </c>
       <c r="C174">
-        <v>96000</v>
+        <v>2270000</v>
       </c>
       <c r="D174" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E174">
         <v>2</v>
       </c>
-      <c r="F174" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F174" t="str">
+        <f>A174&amp;"_"&amp;B174&amp;"_"&amp;"bact"&amp;"_"&amp;E174</f>
+        <v>t4_control.amf_bact_2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B175" t="s">
         <v>9</v>
       </c>
       <c r="C175">
-        <v>65000</v>
+        <v>1150000</v>
       </c>
       <c r="D175" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E175">
         <v>3</v>
       </c>
-      <c r="F175" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F175" t="str">
+        <f>A175&amp;"_"&amp;B175&amp;"_"&amp;"bact"&amp;"_"&amp;E175</f>
+        <v>t4_control.amf_bact_3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B176" t="s">
         <v>10</v>
       </c>
       <c r="C176">
-        <v>112000</v>
+        <v>18500000</v>
       </c>
       <c r="D176" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E176">
         <v>1</v>
       </c>
-      <c r="F176" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F176" t="str">
+        <f>A176&amp;"_"&amp;B176&amp;"_"&amp;"bact"&amp;"_"&amp;E176</f>
+        <v>t4_chicken.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
       </c>
       <c r="C177">
-        <v>127000</v>
+        <v>10700000</v>
       </c>
       <c r="D177" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E177">
         <v>2</v>
       </c>
-      <c r="F177" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F177" t="str">
+        <f>A177&amp;"_"&amp;B177&amp;"_"&amp;"bact"&amp;"_"&amp;E177</f>
+        <v>t4_chicken.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B178" t="s">
         <v>10</v>
       </c>
       <c r="C178">
-        <v>190000</v>
+        <v>14900000</v>
       </c>
       <c r="D178" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E178">
         <v>3</v>
       </c>
-      <c r="F178" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F178" t="str">
+        <f>A178&amp;"_"&amp;B178&amp;"_"&amp;"bact"&amp;"_"&amp;E178</f>
+        <v>t4_chicken.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B179" t="s">
         <v>11</v>
       </c>
       <c r="C179">
-        <v>85500</v>
+        <v>6800000</v>
       </c>
       <c r="D179" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
-      <c r="F179" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F179" t="str">
+        <f>A179&amp;"_"&amp;B179&amp;"_"&amp;"bact"&amp;"_"&amp;E179</f>
+        <v>t4_cow.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B180" t="s">
         <v>11</v>
       </c>
       <c r="C180">
-        <v>125500</v>
+        <v>11200000</v>
       </c>
       <c r="D180" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E180">
         <v>2</v>
       </c>
-      <c r="F180" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F180" t="str">
+        <f>A180&amp;"_"&amp;B180&amp;"_"&amp;"bact"&amp;"_"&amp;E180</f>
+        <v>t4_cow.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B181" t="s">
         <v>11</v>
       </c>
       <c r="C181">
-        <v>98000</v>
+        <v>9350000</v>
       </c>
       <c r="D181" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E181">
         <v>3</v>
       </c>
-      <c r="F181" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F181" t="str">
+        <f>A181&amp;"_"&amp;B181&amp;"_"&amp;"bact"&amp;"_"&amp;E181</f>
+        <v>t4_cow.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
         <v>12</v>
       </c>
       <c r="C182">
-        <v>93500</v>
+        <v>1960000</v>
       </c>
       <c r="D182" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
-      <c r="F182" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F182" t="str">
+        <f>A182&amp;"_"&amp;B182&amp;"_"&amp;"bact"&amp;"_"&amp;E182</f>
+        <v>t4_mo.pellet_bact_1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>12</v>
       </c>
       <c r="C183">
-        <v>92000</v>
+        <v>505000</v>
       </c>
       <c r="D183" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E183">
         <v>2</v>
       </c>
-      <c r="F183" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F183" t="str">
+        <f>A183&amp;"_"&amp;B183&amp;"_"&amp;"bact"&amp;"_"&amp;E183</f>
+        <v>t4_mo.pellet_bact_2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B184" t="s">
         <v>12</v>
       </c>
       <c r="C184">
-        <v>94000</v>
+        <v>7000000</v>
       </c>
       <c r="D184" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E184">
         <v>3</v>
       </c>
-      <c r="F184" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F184" t="str">
+        <f>A184&amp;"_"&amp;B184&amp;"_"&amp;"bact"&amp;"_"&amp;E184</f>
+        <v>t4_mo.pellet_bact_3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B185" t="s">
         <v>13</v>
       </c>
       <c r="C185">
-        <v>103500</v>
+        <v>7650000</v>
       </c>
       <c r="D185" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E185">
         <v>1</v>
       </c>
-      <c r="F185" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F185" t="str">
+        <f>A185&amp;"_"&amp;B185&amp;"_"&amp;"bact"&amp;"_"&amp;E185</f>
+        <v>t4_compost_bact_1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B186" t="s">
         <v>13</v>
       </c>
       <c r="C186">
-        <v>113500</v>
+        <v>11800000</v>
       </c>
       <c r="D186" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E186">
         <v>2</v>
       </c>
-      <c r="F186" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F186" t="str">
+        <f>A186&amp;"_"&amp;B186&amp;"_"&amp;"bact"&amp;"_"&amp;E186</f>
+        <v>t4_compost_bact_2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B187" t="s">
         <v>13</v>
       </c>
       <c r="C187">
-        <v>144500</v>
+        <v>3300000</v>
       </c>
       <c r="D187" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E187">
         <v>3</v>
       </c>
-      <c r="F187" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F187" t="str">
+        <f>A187&amp;"_"&amp;B187&amp;"_"&amp;"bact"&amp;"_"&amp;E187</f>
+        <v>t4_compost_bact_3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B188" t="s">
         <v>14</v>
       </c>
       <c r="C188">
-        <v>108000</v>
+        <v>2140000</v>
       </c>
       <c r="D188" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
-      <c r="F188" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F188" t="str">
+        <f>A188&amp;"_"&amp;B188&amp;"_"&amp;"bact"&amp;"_"&amp;E188</f>
+        <v>t4_control.legumes_bact_1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B189" t="s">
         <v>14</v>
       </c>
       <c r="C189">
-        <v>127000</v>
+        <v>1650000</v>
       </c>
       <c r="D189" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E189">
         <v>2</v>
       </c>
-      <c r="F189" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F189" t="str">
+        <f>A189&amp;"_"&amp;B189&amp;"_"&amp;"bact"&amp;"_"&amp;E189</f>
+        <v>t4_control.legumes_bact_2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B190" t="s">
         <v>14</v>
       </c>
       <c r="C190">
-        <v>81000</v>
+        <v>2390000</v>
       </c>
       <c r="D190" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E190">
         <v>3</v>
       </c>
-      <c r="F190" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F190" t="str">
+        <f>A190&amp;"_"&amp;B190&amp;"_"&amp;"bact"&amp;"_"&amp;E190</f>
+        <v>t4_control.legumes_bact_3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
       </c>
       <c r="C191">
-        <v>103500</v>
+        <v>710000</v>
       </c>
       <c r="D191" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E191">
         <v>1</v>
       </c>
-      <c r="F191" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F191" t="str">
+        <f>A191&amp;"_"&amp;B191&amp;"_"&amp;"bact"&amp;"_"&amp;E191</f>
+        <v>t5_control_bact_1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
       </c>
       <c r="C192">
-        <v>117500</v>
+        <v>700000</v>
       </c>
       <c r="D192" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E192">
         <v>2</v>
       </c>
-      <c r="F192" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F192" t="str">
+        <f>A192&amp;"_"&amp;B192&amp;"_"&amp;"bact"&amp;"_"&amp;E192</f>
+        <v>t5_control_bact_2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B193" t="s">
         <v>7</v>
       </c>
       <c r="C193">
-        <v>135500</v>
+        <v>500000</v>
       </c>
       <c r="D193" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E193">
         <v>3</v>
       </c>
-      <c r="F193" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F193" t="str">
+        <f>A193&amp;"_"&amp;B193&amp;"_"&amp;"bact"&amp;"_"&amp;E193</f>
+        <v>t5_control_bact_3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B194" t="s">
         <v>9</v>
       </c>
       <c r="C194">
-        <v>109000</v>
+        <v>465000</v>
       </c>
       <c r="D194" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E194">
         <v>1</v>
       </c>
-      <c r="F194" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F194" t="str">
+        <f>A194&amp;"_"&amp;B194&amp;"_"&amp;"bact"&amp;"_"&amp;E194</f>
+        <v>t5_control.amf_bact_1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B195" t="s">
         <v>9</v>
       </c>
       <c r="C195">
-        <v>104000</v>
+        <v>630000</v>
       </c>
       <c r="D195" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E195">
         <v>2</v>
       </c>
-      <c r="F195" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F195" t="str">
+        <f>A195&amp;"_"&amp;B195&amp;"_"&amp;"bact"&amp;"_"&amp;E195</f>
+        <v>t5_control.amf_bact_2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B196" t="s">
         <v>9</v>
       </c>
       <c r="C196">
-        <v>108000</v>
+        <v>570000</v>
       </c>
       <c r="D196" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E196">
         <v>3</v>
       </c>
-      <c r="F196" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F196" t="str">
+        <f>A196&amp;"_"&amp;B196&amp;"_"&amp;"bact"&amp;"_"&amp;E196</f>
+        <v>t5_control.amf_bact_3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B197" t="s">
         <v>10</v>
       </c>
       <c r="C197">
-        <v>191500</v>
+        <v>2500000</v>
       </c>
       <c r="D197" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E197">
         <v>1</v>
       </c>
-      <c r="F197" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F197" t="str">
+        <f>A197&amp;"_"&amp;B197&amp;"_"&amp;"bact"&amp;"_"&amp;E197</f>
+        <v>t5_chicken.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B198" t="s">
         <v>10</v>
       </c>
       <c r="C198">
-        <v>150000</v>
+        <v>3020000</v>
       </c>
       <c r="D198" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E198">
         <v>2</v>
       </c>
-      <c r="F198" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F198" t="str">
+        <f>A198&amp;"_"&amp;B198&amp;"_"&amp;"bact"&amp;"_"&amp;E198</f>
+        <v>t5_chicken.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B199" t="s">
         <v>10</v>
       </c>
       <c r="C199">
-        <v>141500</v>
+        <v>2820000</v>
       </c>
       <c r="D199" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E199">
         <v>3</v>
       </c>
-      <c r="F199" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F199" t="str">
+        <f>A199&amp;"_"&amp;B199&amp;"_"&amp;"bact"&amp;"_"&amp;E199</f>
+        <v>t5_chicken.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B200" t="s">
         <v>11</v>
       </c>
       <c r="C200">
-        <v>132500</v>
+        <v>2320000</v>
       </c>
       <c r="D200" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E200">
         <v>1</v>
       </c>
-      <c r="F200" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F200" t="str">
+        <f>A200&amp;"_"&amp;B200&amp;"_"&amp;"bact"&amp;"_"&amp;E200</f>
+        <v>t5_cow.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B201" t="s">
         <v>11</v>
       </c>
       <c r="C201">
-        <v>132000</v>
+        <v>1950000</v>
       </c>
       <c r="D201" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E201">
         <v>2</v>
       </c>
-      <c r="F201" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F201" t="str">
+        <f>A201&amp;"_"&amp;B201&amp;"_"&amp;"bact"&amp;"_"&amp;E201</f>
+        <v>t5_cow.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B202" t="s">
         <v>11</v>
       </c>
       <c r="C202">
-        <v>145000</v>
+        <v>1040000</v>
       </c>
       <c r="D202" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E202">
         <v>3</v>
       </c>
-      <c r="F202" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F202" t="str">
+        <f>A202&amp;"_"&amp;B202&amp;"_"&amp;"bact"&amp;"_"&amp;E202</f>
+        <v>t5_cow.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B203" t="s">
         <v>12</v>
       </c>
       <c r="C203">
-        <v>139500</v>
+        <v>675000</v>
       </c>
       <c r="D203" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E203">
         <v>1</v>
       </c>
-      <c r="F203" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F203" t="str">
+        <f>A203&amp;"_"&amp;B203&amp;"_"&amp;"bact"&amp;"_"&amp;E203</f>
+        <v>t5_mo.pellet_bact_1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B204" t="s">
         <v>12</v>
       </c>
       <c r="C204">
-        <v>136500</v>
+        <v>1370000</v>
       </c>
       <c r="D204" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E204">
         <v>2</v>
       </c>
-      <c r="F204" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F204" t="str">
+        <f>A204&amp;"_"&amp;B204&amp;"_"&amp;"bact"&amp;"_"&amp;E204</f>
+        <v>t5_mo.pellet_bact_2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B205" t="s">
         <v>12</v>
       </c>
       <c r="C205">
-        <v>131500</v>
+        <v>1380000</v>
       </c>
       <c r="D205" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E205">
         <v>3</v>
       </c>
-      <c r="F205" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F205" t="str">
+        <f>A205&amp;"_"&amp;B205&amp;"_"&amp;"bact"&amp;"_"&amp;E205</f>
+        <v>t5_mo.pellet_bact_3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B206" t="s">
         <v>13</v>
       </c>
       <c r="C206">
-        <v>177000</v>
+        <v>1200000</v>
       </c>
       <c r="D206" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E206">
         <v>1</v>
       </c>
-      <c r="F206" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F206" t="str">
+        <f>A206&amp;"_"&amp;B206&amp;"_"&amp;"bact"&amp;"_"&amp;E206</f>
+        <v>t5_compost_bact_1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B207" t="s">
         <v>13</v>
       </c>
       <c r="C207">
-        <v>167500</v>
+        <v>1320000</v>
       </c>
       <c r="D207" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E207">
         <v>2</v>
       </c>
-      <c r="F207" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F207" t="str">
+        <f>A207&amp;"_"&amp;B207&amp;"_"&amp;"bact"&amp;"_"&amp;E207</f>
+        <v>t5_compost_bact_2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B208" t="s">
         <v>13</v>
       </c>
       <c r="C208">
-        <v>171000</v>
+        <v>1080000</v>
       </c>
       <c r="D208" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E208">
         <v>3</v>
       </c>
-      <c r="F208" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F208" t="str">
+        <f>A208&amp;"_"&amp;B208&amp;"_"&amp;"bact"&amp;"_"&amp;E208</f>
+        <v>t5_compost_bact_3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B209" t="s">
         <v>14</v>
       </c>
       <c r="C209">
-        <v>249000</v>
+        <v>44500</v>
       </c>
       <c r="D209" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E209">
         <v>1</v>
       </c>
-      <c r="F209" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F209" t="str">
+        <f>A209&amp;"_"&amp;B209&amp;"_"&amp;"bact"&amp;"_"&amp;E209</f>
+        <v>t5_control.legumes_bact_1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B210" t="s">
         <v>14</v>
       </c>
       <c r="C210">
-        <v>231000</v>
+        <v>630000</v>
       </c>
       <c r="D210" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E210">
         <v>2</v>
       </c>
-      <c r="F210" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F210" t="str">
+        <f>A210&amp;"_"&amp;B210&amp;"_"&amp;"bact"&amp;"_"&amp;E210</f>
+        <v>t5_control.legumes_bact_2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="B211" t="s">
         <v>14</v>
       </c>
       <c r="C211">
-        <v>144000</v>
+        <v>365000</v>
       </c>
       <c r="D211" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E211">
         <v>3</v>
       </c>
-      <c r="F211" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F211" t="str">
+        <f>A211&amp;"_"&amp;B211&amp;"_"&amp;"bact"&amp;"_"&amp;E211</f>
+        <v>t5_control.legumes_bact_3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B212" t="s">
         <v>7</v>
       </c>
       <c r="C212">
-        <v>100000</v>
+        <v>60500</v>
       </c>
       <c r="D212" t="s">
         <v>19</v>
@@ -5398,18 +5450,18 @@
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B213" t="s">
         <v>7</v>
       </c>
       <c r="C213">
-        <v>123000.5</v>
+        <v>99000</v>
       </c>
       <c r="D213" t="s">
         <v>19</v>
@@ -5418,18 +5470,18 @@
         <v>2</v>
       </c>
       <c r="F213" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B214" t="s">
         <v>7</v>
       </c>
       <c r="C214">
-        <v>136000</v>
+        <v>89500</v>
       </c>
       <c r="D214" t="s">
         <v>19</v>
@@ -5438,18 +5490,18 @@
         <v>3</v>
       </c>
       <c r="F214" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B215" t="s">
         <v>9</v>
       </c>
       <c r="C215">
-        <v>99000.5</v>
+        <v>90500</v>
       </c>
       <c r="D215" t="s">
         <v>19</v>
@@ -5458,18 +5510,18 @@
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B216" t="s">
         <v>9</v>
       </c>
       <c r="C216">
-        <v>92000</v>
+        <v>96000</v>
       </c>
       <c r="D216" t="s">
         <v>19</v>
@@ -5478,18 +5530,18 @@
         <v>2</v>
       </c>
       <c r="F216" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B217" t="s">
         <v>9</v>
       </c>
       <c r="C217">
-        <v>112000.5</v>
+        <v>65000</v>
       </c>
       <c r="D217" t="s">
         <v>19</v>
@@ -5498,18 +5550,18 @@
         <v>3</v>
       </c>
       <c r="F217" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B218" t="s">
         <v>10</v>
       </c>
       <c r="C218">
-        <v>151000.5</v>
+        <v>112000</v>
       </c>
       <c r="D218" t="s">
         <v>19</v>
@@ -5518,18 +5570,18 @@
         <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B219" t="s">
         <v>10</v>
       </c>
       <c r="C219">
-        <v>176000.5</v>
+        <v>127000</v>
       </c>
       <c r="D219" t="s">
         <v>19</v>
@@ -5538,18 +5590,18 @@
         <v>2</v>
       </c>
       <c r="F219" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B220" t="s">
         <v>10</v>
       </c>
       <c r="C220">
-        <v>159000.5</v>
+        <v>190000</v>
       </c>
       <c r="D220" t="s">
         <v>19</v>
@@ -5558,18 +5610,18 @@
         <v>3</v>
       </c>
       <c r="F220" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B221" t="s">
         <v>11</v>
       </c>
       <c r="C221">
-        <v>120000.5</v>
+        <v>85500</v>
       </c>
       <c r="D221" t="s">
         <v>19</v>
@@ -5578,18 +5630,18 @@
         <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B222" t="s">
         <v>11</v>
       </c>
       <c r="C222">
-        <v>164000</v>
+        <v>125500</v>
       </c>
       <c r="D222" t="s">
         <v>19</v>
@@ -5598,18 +5650,18 @@
         <v>2</v>
       </c>
       <c r="F222" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B223" t="s">
         <v>11</v>
       </c>
       <c r="C223">
-        <v>113000.5</v>
+        <v>98000</v>
       </c>
       <c r="D223" t="s">
         <v>19</v>
@@ -5618,18 +5670,18 @@
         <v>3</v>
       </c>
       <c r="F223" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B224" t="s">
         <v>12</v>
       </c>
       <c r="C224">
-        <v>125000.5</v>
+        <v>93500</v>
       </c>
       <c r="D224" t="s">
         <v>19</v>
@@ -5638,18 +5690,18 @@
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B225" t="s">
         <v>12</v>
       </c>
       <c r="C225">
-        <v>187000.5</v>
+        <v>92000</v>
       </c>
       <c r="D225" t="s">
         <v>19</v>
@@ -5658,18 +5710,18 @@
         <v>2</v>
       </c>
       <c r="F225" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B226" t="s">
         <v>12</v>
       </c>
       <c r="C226">
-        <v>100000</v>
+        <v>94000</v>
       </c>
       <c r="D226" t="s">
         <v>19</v>
@@ -5678,18 +5730,18 @@
         <v>3</v>
       </c>
       <c r="F226" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B227" t="s">
         <v>13</v>
       </c>
       <c r="C227">
-        <v>133000.5</v>
+        <v>103500</v>
       </c>
       <c r="D227" t="s">
         <v>19</v>
@@ -5698,18 +5750,18 @@
         <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B228" t="s">
         <v>13</v>
       </c>
       <c r="C228">
-        <v>123000</v>
+        <v>113500</v>
       </c>
       <c r="D228" t="s">
         <v>19</v>
@@ -5718,18 +5770,18 @@
         <v>2</v>
       </c>
       <c r="F228" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B229" t="s">
         <v>13</v>
       </c>
       <c r="C229">
-        <v>134000.5</v>
+        <v>144500</v>
       </c>
       <c r="D229" t="s">
         <v>19</v>
@@ -5738,18 +5790,18 @@
         <v>3</v>
       </c>
       <c r="F229" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B230" t="s">
         <v>14</v>
       </c>
       <c r="C230">
-        <v>167000</v>
+        <v>108000</v>
       </c>
       <c r="D230" t="s">
         <v>19</v>
@@ -5758,18 +5810,18 @@
         <v>1</v>
       </c>
       <c r="F230" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B231" t="s">
         <v>14</v>
       </c>
       <c r="C231">
-        <v>198000</v>
+        <v>127000</v>
       </c>
       <c r="D231" t="s">
         <v>19</v>
@@ -5778,18 +5830,18 @@
         <v>2</v>
       </c>
       <c r="F231" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B232" t="s">
         <v>14</v>
       </c>
       <c r="C232">
-        <v>257000</v>
+        <v>81000</v>
       </c>
       <c r="D232" t="s">
         <v>19</v>
@@ -5798,18 +5850,18 @@
         <v>3</v>
       </c>
       <c r="F232" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
       </c>
       <c r="C233">
-        <v>125000</v>
+        <v>103500</v>
       </c>
       <c r="D233" t="s">
         <v>19</v>
@@ -5818,18 +5870,18 @@
         <v>1</v>
       </c>
       <c r="F233" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
       </c>
       <c r="C234">
-        <v>97500</v>
+        <v>117500</v>
       </c>
       <c r="D234" t="s">
         <v>19</v>
@@ -5838,18 +5890,18 @@
         <v>2</v>
       </c>
       <c r="F234" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
       </c>
       <c r="C235">
-        <v>148000</v>
+        <v>135500</v>
       </c>
       <c r="D235" t="s">
         <v>19</v>
@@ -5858,18 +5910,18 @@
         <v>3</v>
       </c>
       <c r="F235" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B236" t="s">
         <v>9</v>
       </c>
       <c r="C236">
-        <v>195000</v>
+        <v>109000</v>
       </c>
       <c r="D236" t="s">
         <v>19</v>
@@ -5878,18 +5930,18 @@
         <v>1</v>
       </c>
       <c r="F236" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B237" t="s">
         <v>9</v>
       </c>
       <c r="C237">
-        <v>95000</v>
+        <v>104000</v>
       </c>
       <c r="D237" t="s">
         <v>19</v>
@@ -5898,18 +5950,18 @@
         <v>2</v>
       </c>
       <c r="F237" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
       </c>
       <c r="C238">
-        <v>94000</v>
+        <v>108000</v>
       </c>
       <c r="D238" t="s">
         <v>19</v>
@@ -5918,18 +5970,18 @@
         <v>3</v>
       </c>
       <c r="F238" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B239" t="s">
         <v>10</v>
       </c>
       <c r="C239">
-        <v>148000</v>
+        <v>191500</v>
       </c>
       <c r="D239" t="s">
         <v>19</v>
@@ -5938,18 +5990,18 @@
         <v>1</v>
       </c>
       <c r="F239" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B240" t="s">
         <v>10</v>
       </c>
       <c r="C240">
-        <v>162500</v>
+        <v>150000</v>
       </c>
       <c r="D240" t="s">
         <v>19</v>
@@ -5958,18 +6010,18 @@
         <v>2</v>
       </c>
       <c r="F240" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B241" t="s">
         <v>10</v>
       </c>
       <c r="C241">
-        <v>149000</v>
+        <v>141500</v>
       </c>
       <c r="D241" t="s">
         <v>19</v>
@@ -5978,18 +6030,18 @@
         <v>3</v>
       </c>
       <c r="F241" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B242" t="s">
         <v>11</v>
       </c>
       <c r="C242">
-        <v>150500</v>
+        <v>132500</v>
       </c>
       <c r="D242" t="s">
         <v>19</v>
@@ -5998,18 +6050,18 @@
         <v>1</v>
       </c>
       <c r="F242" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B243" t="s">
         <v>11</v>
       </c>
       <c r="C243">
-        <v>88500</v>
+        <v>132000</v>
       </c>
       <c r="D243" t="s">
         <v>19</v>
@@ -6018,18 +6070,18 @@
         <v>2</v>
       </c>
       <c r="F243" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B244" t="s">
         <v>11</v>
       </c>
       <c r="C244">
-        <v>114500</v>
+        <v>145000</v>
       </c>
       <c r="D244" t="s">
         <v>19</v>
@@ -6038,18 +6090,18 @@
         <v>3</v>
       </c>
       <c r="F244" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B245" t="s">
         <v>12</v>
       </c>
       <c r="C245">
-        <v>137500</v>
+        <v>139500</v>
       </c>
       <c r="D245" t="s">
         <v>19</v>
@@ -6058,18 +6110,18 @@
         <v>1</v>
       </c>
       <c r="F245" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B246" t="s">
         <v>12</v>
       </c>
       <c r="C246">
-        <v>95500</v>
+        <v>136500</v>
       </c>
       <c r="D246" t="s">
         <v>19</v>
@@ -6078,18 +6130,18 @@
         <v>2</v>
       </c>
       <c r="F246" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B247" t="s">
         <v>12</v>
       </c>
       <c r="C247">
-        <v>102500</v>
+        <v>131500</v>
       </c>
       <c r="D247" t="s">
         <v>19</v>
@@ -6098,18 +6150,18 @@
         <v>3</v>
       </c>
       <c r="F247" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B248" t="s">
         <v>13</v>
       </c>
       <c r="C248">
-        <v>155500</v>
+        <v>177000</v>
       </c>
       <c r="D248" t="s">
         <v>19</v>
@@ -6118,18 +6170,18 @@
         <v>1</v>
       </c>
       <c r="F248" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B249" t="s">
         <v>13</v>
       </c>
       <c r="C249">
-        <v>130000</v>
+        <v>167500</v>
       </c>
       <c r="D249" t="s">
         <v>19</v>
@@ -6138,18 +6190,18 @@
         <v>2</v>
       </c>
       <c r="F249" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B250" t="s">
         <v>13</v>
       </c>
       <c r="C250">
-        <v>151000</v>
+        <v>171000</v>
       </c>
       <c r="D250" t="s">
         <v>19</v>
@@ -6158,18 +6210,18 @@
         <v>3</v>
       </c>
       <c r="F250" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B251" t="s">
         <v>14</v>
       </c>
       <c r="C251">
-        <v>126000</v>
+        <v>249000</v>
       </c>
       <c r="D251" t="s">
         <v>19</v>
@@ -6178,18 +6230,18 @@
         <v>1</v>
       </c>
       <c r="F251" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B252" t="s">
         <v>14</v>
       </c>
       <c r="C252">
-        <v>91000</v>
+        <v>231000</v>
       </c>
       <c r="D252" t="s">
         <v>19</v>
@@ -6198,27 +6250,2631 @@
         <v>2</v>
       </c>
       <c r="F252" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B253" t="s">
         <v>14</v>
       </c>
       <c r="C253">
+        <v>144000</v>
+      </c>
+      <c r="D253" t="s">
+        <v>19</v>
+      </c>
+      <c r="E253">
+        <v>3</v>
+      </c>
+      <c r="F253" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>16</v>
+      </c>
+      <c r="B254" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254">
+        <v>100000</v>
+      </c>
+      <c r="D254" t="s">
+        <v>19</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>16</v>
+      </c>
+      <c r="B255" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255">
+        <v>123000.5</v>
+      </c>
+      <c r="D255" t="s">
+        <v>19</v>
+      </c>
+      <c r="E255">
+        <v>2</v>
+      </c>
+      <c r="F255" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>16</v>
+      </c>
+      <c r="B256" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256">
+        <v>136000</v>
+      </c>
+      <c r="D256" t="s">
+        <v>19</v>
+      </c>
+      <c r="E256">
+        <v>3</v>
+      </c>
+      <c r="F256" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>16</v>
+      </c>
+      <c r="B257" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257">
+        <v>99000.5</v>
+      </c>
+      <c r="D257" t="s">
+        <v>19</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>16</v>
+      </c>
+      <c r="B258" t="s">
+        <v>9</v>
+      </c>
+      <c r="C258">
+        <v>92000</v>
+      </c>
+      <c r="D258" t="s">
+        <v>19</v>
+      </c>
+      <c r="E258">
+        <v>2</v>
+      </c>
+      <c r="F258" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>16</v>
+      </c>
+      <c r="B259" t="s">
+        <v>9</v>
+      </c>
+      <c r="C259">
+        <v>112000.5</v>
+      </c>
+      <c r="D259" t="s">
+        <v>19</v>
+      </c>
+      <c r="E259">
+        <v>3</v>
+      </c>
+      <c r="F259" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>16</v>
+      </c>
+      <c r="B260" t="s">
+        <v>10</v>
+      </c>
+      <c r="C260">
+        <v>151000.5</v>
+      </c>
+      <c r="D260" t="s">
+        <v>19</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>16</v>
+      </c>
+      <c r="B261" t="s">
+        <v>10</v>
+      </c>
+      <c r="C261">
+        <v>176000.5</v>
+      </c>
+      <c r="D261" t="s">
+        <v>19</v>
+      </c>
+      <c r="E261">
+        <v>2</v>
+      </c>
+      <c r="F261" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>16</v>
+      </c>
+      <c r="B262" t="s">
+        <v>10</v>
+      </c>
+      <c r="C262">
+        <v>159000.5</v>
+      </c>
+      <c r="D262" t="s">
+        <v>19</v>
+      </c>
+      <c r="E262">
+        <v>3</v>
+      </c>
+      <c r="F262" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>16</v>
+      </c>
+      <c r="B263" t="s">
+        <v>11</v>
+      </c>
+      <c r="C263">
+        <v>120000.5</v>
+      </c>
+      <c r="D263" t="s">
+        <v>19</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>16</v>
+      </c>
+      <c r="B264" t="s">
+        <v>11</v>
+      </c>
+      <c r="C264">
+        <v>164000</v>
+      </c>
+      <c r="D264" t="s">
+        <v>19</v>
+      </c>
+      <c r="E264">
+        <v>2</v>
+      </c>
+      <c r="F264" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>16</v>
+      </c>
+      <c r="B265" t="s">
+        <v>11</v>
+      </c>
+      <c r="C265">
+        <v>113000.5</v>
+      </c>
+      <c r="D265" t="s">
+        <v>19</v>
+      </c>
+      <c r="E265">
+        <v>3</v>
+      </c>
+      <c r="F265" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>16</v>
+      </c>
+      <c r="B266" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266">
+        <v>125000.5</v>
+      </c>
+      <c r="D266" t="s">
+        <v>19</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>16</v>
+      </c>
+      <c r="B267" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267">
+        <v>187000.5</v>
+      </c>
+      <c r="D267" t="s">
+        <v>19</v>
+      </c>
+      <c r="E267">
+        <v>2</v>
+      </c>
+      <c r="F267" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>16</v>
+      </c>
+      <c r="B268" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268">
+        <v>100000</v>
+      </c>
+      <c r="D268" t="s">
+        <v>19</v>
+      </c>
+      <c r="E268">
+        <v>3</v>
+      </c>
+      <c r="F268" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>16</v>
+      </c>
+      <c r="B269" t="s">
+        <v>13</v>
+      </c>
+      <c r="C269">
+        <v>133000.5</v>
+      </c>
+      <c r="D269" t="s">
+        <v>19</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>16</v>
+      </c>
+      <c r="B270" t="s">
+        <v>13</v>
+      </c>
+      <c r="C270">
+        <v>123000</v>
+      </c>
+      <c r="D270" t="s">
+        <v>19</v>
+      </c>
+      <c r="E270">
+        <v>2</v>
+      </c>
+      <c r="F270" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>16</v>
+      </c>
+      <c r="B271" t="s">
+        <v>13</v>
+      </c>
+      <c r="C271">
+        <v>134000.5</v>
+      </c>
+      <c r="D271" t="s">
+        <v>19</v>
+      </c>
+      <c r="E271">
+        <v>3</v>
+      </c>
+      <c r="F271" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>16</v>
+      </c>
+      <c r="B272" t="s">
+        <v>14</v>
+      </c>
+      <c r="C272">
+        <v>167000</v>
+      </c>
+      <c r="D272" t="s">
+        <v>19</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>16</v>
+      </c>
+      <c r="B273" t="s">
+        <v>14</v>
+      </c>
+      <c r="C273">
+        <v>198000</v>
+      </c>
+      <c r="D273" t="s">
+        <v>19</v>
+      </c>
+      <c r="E273">
+        <v>2</v>
+      </c>
+      <c r="F273" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>16</v>
+      </c>
+      <c r="B274" t="s">
+        <v>14</v>
+      </c>
+      <c r="C274">
+        <v>257000</v>
+      </c>
+      <c r="D274" t="s">
+        <v>19</v>
+      </c>
+      <c r="E274">
+        <v>3</v>
+      </c>
+      <c r="F274" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>17</v>
+      </c>
+      <c r="B275" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275">
+        <v>125000</v>
+      </c>
+      <c r="D275" t="s">
+        <v>19</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>17</v>
+      </c>
+      <c r="B276" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276">
+        <v>97500</v>
+      </c>
+      <c r="D276" t="s">
+        <v>19</v>
+      </c>
+      <c r="E276">
+        <v>2</v>
+      </c>
+      <c r="F276" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>17</v>
+      </c>
+      <c r="B277" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277">
+        <v>148000</v>
+      </c>
+      <c r="D277" t="s">
+        <v>19</v>
+      </c>
+      <c r="E277">
+        <v>3</v>
+      </c>
+      <c r="F277" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>17</v>
+      </c>
+      <c r="B278" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278">
+        <v>195000</v>
+      </c>
+      <c r="D278" t="s">
+        <v>19</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>17</v>
+      </c>
+      <c r="B279" t="s">
+        <v>9</v>
+      </c>
+      <c r="C279">
+        <v>95000</v>
+      </c>
+      <c r="D279" t="s">
+        <v>19</v>
+      </c>
+      <c r="E279">
+        <v>2</v>
+      </c>
+      <c r="F279" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>17</v>
+      </c>
+      <c r="B280" t="s">
+        <v>9</v>
+      </c>
+      <c r="C280">
+        <v>94000</v>
+      </c>
+      <c r="D280" t="s">
+        <v>19</v>
+      </c>
+      <c r="E280">
+        <v>3</v>
+      </c>
+      <c r="F280" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>17</v>
+      </c>
+      <c r="B281" t="s">
+        <v>10</v>
+      </c>
+      <c r="C281">
+        <v>148000</v>
+      </c>
+      <c r="D281" t="s">
+        <v>19</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>17</v>
+      </c>
+      <c r="B282" t="s">
+        <v>10</v>
+      </c>
+      <c r="C282">
+        <v>162500</v>
+      </c>
+      <c r="D282" t="s">
+        <v>19</v>
+      </c>
+      <c r="E282">
+        <v>2</v>
+      </c>
+      <c r="F282" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>17</v>
+      </c>
+      <c r="B283" t="s">
+        <v>10</v>
+      </c>
+      <c r="C283">
+        <v>149000</v>
+      </c>
+      <c r="D283" t="s">
+        <v>19</v>
+      </c>
+      <c r="E283">
+        <v>3</v>
+      </c>
+      <c r="F283" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>17</v>
+      </c>
+      <c r="B284" t="s">
+        <v>11</v>
+      </c>
+      <c r="C284">
+        <v>150500</v>
+      </c>
+      <c r="D284" t="s">
+        <v>19</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>17</v>
+      </c>
+      <c r="B285" t="s">
+        <v>11</v>
+      </c>
+      <c r="C285">
+        <v>88500</v>
+      </c>
+      <c r="D285" t="s">
+        <v>19</v>
+      </c>
+      <c r="E285">
+        <v>2</v>
+      </c>
+      <c r="F285" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>17</v>
+      </c>
+      <c r="B286" t="s">
+        <v>11</v>
+      </c>
+      <c r="C286">
+        <v>114500</v>
+      </c>
+      <c r="D286" t="s">
+        <v>19</v>
+      </c>
+      <c r="E286">
+        <v>3</v>
+      </c>
+      <c r="F286" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>17</v>
+      </c>
+      <c r="B287" t="s">
+        <v>12</v>
+      </c>
+      <c r="C287">
+        <v>137500</v>
+      </c>
+      <c r="D287" t="s">
+        <v>19</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>17</v>
+      </c>
+      <c r="B288" t="s">
+        <v>12</v>
+      </c>
+      <c r="C288">
+        <v>95500</v>
+      </c>
+      <c r="D288" t="s">
+        <v>19</v>
+      </c>
+      <c r="E288">
+        <v>2</v>
+      </c>
+      <c r="F288" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>17</v>
+      </c>
+      <c r="B289" t="s">
+        <v>12</v>
+      </c>
+      <c r="C289">
+        <v>102500</v>
+      </c>
+      <c r="D289" t="s">
+        <v>19</v>
+      </c>
+      <c r="E289">
+        <v>3</v>
+      </c>
+      <c r="F289" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>17</v>
+      </c>
+      <c r="B290" t="s">
+        <v>13</v>
+      </c>
+      <c r="C290">
+        <v>155500</v>
+      </c>
+      <c r="D290" t="s">
+        <v>19</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>17</v>
+      </c>
+      <c r="B291" t="s">
+        <v>13</v>
+      </c>
+      <c r="C291">
+        <v>130000</v>
+      </c>
+      <c r="D291" t="s">
+        <v>19</v>
+      </c>
+      <c r="E291">
+        <v>2</v>
+      </c>
+      <c r="F291" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>17</v>
+      </c>
+      <c r="B292" t="s">
+        <v>13</v>
+      </c>
+      <c r="C292">
+        <v>151000</v>
+      </c>
+      <c r="D292" t="s">
+        <v>19</v>
+      </c>
+      <c r="E292">
+        <v>3</v>
+      </c>
+      <c r="F292" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>17</v>
+      </c>
+      <c r="B293" t="s">
+        <v>14</v>
+      </c>
+      <c r="C293">
+        <v>126000</v>
+      </c>
+      <c r="D293" t="s">
+        <v>19</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>17</v>
+      </c>
+      <c r="B294" t="s">
+        <v>14</v>
+      </c>
+      <c r="C294">
+        <v>91000</v>
+      </c>
+      <c r="D294" t="s">
+        <v>19</v>
+      </c>
+      <c r="E294">
+        <v>2</v>
+      </c>
+      <c r="F294" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>17</v>
+      </c>
+      <c r="B295" t="s">
+        <v>14</v>
+      </c>
+      <c r="C295">
         <v>160000</v>
       </c>
-      <c r="D253" t="s">
-        <v>19</v>
-      </c>
-      <c r="E253">
-        <v>3</v>
-      </c>
-      <c r="F253" t="s">
+      <c r="D295" t="s">
+        <v>19</v>
+      </c>
+      <c r="E295">
+        <v>3</v>
+      </c>
+      <c r="F295" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>272</v>
+      </c>
+      <c r="B296" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296">
+        <v>6000</v>
+      </c>
+      <c r="D296" t="s">
+        <v>8</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296" t="str">
+        <f t="shared" ref="F296:F337" si="0">A296&amp;"_"&amp;B296&amp;"_"&amp;"actino"&amp;"_"&amp;E296</f>
+        <v>t5_control_actino_1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>272</v>
+      </c>
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297">
+        <v>31500</v>
+      </c>
+      <c r="D297" t="s">
+        <v>8</v>
+      </c>
+      <c r="E297">
+        <v>2</v>
+      </c>
+      <c r="F297" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_control_actino_2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>272</v>
+      </c>
+      <c r="B298" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298">
+        <v>16000</v>
+      </c>
+      <c r="D298" t="s">
+        <v>8</v>
+      </c>
+      <c r="E298">
+        <v>3</v>
+      </c>
+      <c r="F298" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_control_actino_3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>272</v>
+      </c>
+      <c r="B299" t="s">
+        <v>9</v>
+      </c>
+      <c r="C299">
+        <v>34500</v>
+      </c>
+      <c r="D299" t="s">
+        <v>8</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_control.amf_actino_1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>272</v>
+      </c>
+      <c r="B300" t="s">
+        <v>9</v>
+      </c>
+      <c r="C300">
+        <v>16000</v>
+      </c>
+      <c r="D300" t="s">
+        <v>8</v>
+      </c>
+      <c r="E300">
+        <v>2</v>
+      </c>
+      <c r="F300" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_control.amf_actino_2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>272</v>
+      </c>
+      <c r="B301" t="s">
+        <v>9</v>
+      </c>
+      <c r="C301">
+        <v>17000</v>
+      </c>
+      <c r="D301" t="s">
+        <v>8</v>
+      </c>
+      <c r="E301">
+        <v>3</v>
+      </c>
+      <c r="F301" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_control.amf_actino_3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>272</v>
+      </c>
+      <c r="B302" t="s">
+        <v>10</v>
+      </c>
+      <c r="C302">
+        <v>600000</v>
+      </c>
+      <c r="D302" t="s">
+        <v>8</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
+      </c>
+      <c r="F302" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_chicken.manure_actino_1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>272</v>
+      </c>
+      <c r="B303" t="s">
+        <v>10</v>
+      </c>
+      <c r="C303">
+        <v>645000</v>
+      </c>
+      <c r="D303" t="s">
+        <v>8</v>
+      </c>
+      <c r="E303">
+        <v>2</v>
+      </c>
+      <c r="F303" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_chicken.manure_actino_2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>272</v>
+      </c>
+      <c r="B304" t="s">
+        <v>10</v>
+      </c>
+      <c r="C304">
+        <v>275000</v>
+      </c>
+      <c r="D304" t="s">
+        <v>8</v>
+      </c>
+      <c r="E304">
+        <v>3</v>
+      </c>
+      <c r="F304" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_chicken.manure_actino_3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>272</v>
+      </c>
+      <c r="B305" t="s">
+        <v>11</v>
+      </c>
+      <c r="C305">
+        <v>121000</v>
+      </c>
+      <c r="D305" t="s">
+        <v>8</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+      <c r="F305" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_cow.manure_actino_1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>272</v>
+      </c>
+      <c r="B306" t="s">
+        <v>11</v>
+      </c>
+      <c r="C306">
+        <v>29500</v>
+      </c>
+      <c r="D306" t="s">
+        <v>8</v>
+      </c>
+      <c r="E306">
+        <v>2</v>
+      </c>
+      <c r="F306" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_cow.manure_actino_2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>272</v>
+      </c>
+      <c r="B307" t="s">
+        <v>11</v>
+      </c>
+      <c r="C307">
+        <v>98000</v>
+      </c>
+      <c r="D307" t="s">
+        <v>8</v>
+      </c>
+      <c r="E307">
+        <v>3</v>
+      </c>
+      <c r="F307" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_cow.manure_actino_3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>272</v>
+      </c>
+      <c r="B308" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308">
+        <v>82000</v>
+      </c>
+      <c r="D308" t="s">
+        <v>8</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
+      </c>
+      <c r="F308" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_mo.pellet_actino_1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>272</v>
+      </c>
+      <c r="B309" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309">
+        <v>14500</v>
+      </c>
+      <c r="D309" t="s">
+        <v>8</v>
+      </c>
+      <c r="E309">
+        <v>2</v>
+      </c>
+      <c r="F309" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_mo.pellet_actino_2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>272</v>
+      </c>
+      <c r="B310" t="s">
+        <v>12</v>
+      </c>
+      <c r="C310">
+        <v>36500</v>
+      </c>
+      <c r="D310" t="s">
+        <v>8</v>
+      </c>
+      <c r="E310">
+        <v>3</v>
+      </c>
+      <c r="F310" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_mo.pellet_actino_3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>272</v>
+      </c>
+      <c r="B311" t="s">
+        <v>13</v>
+      </c>
+      <c r="C311">
+        <v>415000</v>
+      </c>
+      <c r="D311" t="s">
+        <v>8</v>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
+      <c r="F311" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_compost_actino_1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>272</v>
+      </c>
+      <c r="B312" t="s">
+        <v>13</v>
+      </c>
+      <c r="C312">
+        <v>24500</v>
+      </c>
+      <c r="D312" t="s">
+        <v>8</v>
+      </c>
+      <c r="E312">
+        <v>2</v>
+      </c>
+      <c r="F312" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_compost_actino_2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>272</v>
+      </c>
+      <c r="B313" t="s">
+        <v>13</v>
+      </c>
+      <c r="C313">
+        <v>87500</v>
+      </c>
+      <c r="D313" t="s">
+        <v>8</v>
+      </c>
+      <c r="E313">
+        <v>3</v>
+      </c>
+      <c r="F313" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_compost_actino_3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>272</v>
+      </c>
+      <c r="B314" t="s">
+        <v>14</v>
+      </c>
+      <c r="C314">
+        <v>64000</v>
+      </c>
+      <c r="D314" t="s">
+        <v>8</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+      <c r="F314" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_control.legumes_actino_1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>272</v>
+      </c>
+      <c r="B315" t="s">
+        <v>14</v>
+      </c>
+      <c r="C315">
+        <v>29500</v>
+      </c>
+      <c r="D315" t="s">
+        <v>8</v>
+      </c>
+      <c r="E315">
+        <v>2</v>
+      </c>
+      <c r="F315" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_control.legumes_actino_2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>272</v>
+      </c>
+      <c r="B316" t="s">
+        <v>14</v>
+      </c>
+      <c r="C316">
+        <v>23500</v>
+      </c>
+      <c r="D316" t="s">
+        <v>8</v>
+      </c>
+      <c r="E316">
+        <v>3</v>
+      </c>
+      <c r="F316" t="str">
+        <f t="shared" si="0"/>
+        <v>t5_control.legumes_actino_3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>273</v>
+      </c>
+      <c r="B317" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317">
+        <v>60000</v>
+      </c>
+      <c r="D317" t="s">
+        <v>8</v>
+      </c>
+      <c r="E317">
+        <v>1</v>
+      </c>
+      <c r="F317" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_control_actino_1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>273</v>
+      </c>
+      <c r="B318" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318">
+        <v>25500</v>
+      </c>
+      <c r="D318" t="s">
+        <v>8</v>
+      </c>
+      <c r="E318">
+        <v>2</v>
+      </c>
+      <c r="F318" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_control_actino_2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>273</v>
+      </c>
+      <c r="B319" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319">
+        <v>95000</v>
+      </c>
+      <c r="D319" t="s">
+        <v>8</v>
+      </c>
+      <c r="E319">
+        <v>3</v>
+      </c>
+      <c r="F319" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_control_actino_3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>273</v>
+      </c>
+      <c r="B320" t="s">
+        <v>9</v>
+      </c>
+      <c r="C320">
+        <v>47000</v>
+      </c>
+      <c r="D320" t="s">
+        <v>8</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
+      <c r="F320" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_control.amf_actino_1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>273</v>
+      </c>
+      <c r="B321" t="s">
+        <v>9</v>
+      </c>
+      <c r="C321">
+        <v>47500</v>
+      </c>
+      <c r="D321" t="s">
+        <v>8</v>
+      </c>
+      <c r="E321">
+        <v>2</v>
+      </c>
+      <c r="F321" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_control.amf_actino_2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>273</v>
+      </c>
+      <c r="B322" t="s">
+        <v>9</v>
+      </c>
+      <c r="C322">
+        <v>90000</v>
+      </c>
+      <c r="D322" t="s">
+        <v>8</v>
+      </c>
+      <c r="E322">
+        <v>3</v>
+      </c>
+      <c r="F322" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_control.amf_actino_3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>273</v>
+      </c>
+      <c r="B323" t="s">
+        <v>10</v>
+      </c>
+      <c r="C323">
+        <v>850000</v>
+      </c>
+      <c r="D323" t="s">
+        <v>8</v>
+      </c>
+      <c r="E323">
+        <v>1</v>
+      </c>
+      <c r="F323" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_chicken.manure_actino_1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>273</v>
+      </c>
+      <c r="B324" t="s">
+        <v>10</v>
+      </c>
+      <c r="C324">
+        <v>58000</v>
+      </c>
+      <c r="D324" t="s">
+        <v>8</v>
+      </c>
+      <c r="E324">
+        <v>2</v>
+      </c>
+      <c r="F324" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_chicken.manure_actino_2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>273</v>
+      </c>
+      <c r="B325" t="s">
+        <v>10</v>
+      </c>
+      <c r="C325">
+        <v>1330000</v>
+      </c>
+      <c r="D325" t="s">
+        <v>8</v>
+      </c>
+      <c r="E325">
+        <v>3</v>
+      </c>
+      <c r="F325" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_chicken.manure_actino_3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>273</v>
+      </c>
+      <c r="B326" t="s">
+        <v>11</v>
+      </c>
+      <c r="C326">
+        <v>149000</v>
+      </c>
+      <c r="D326" t="s">
+        <v>8</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_cow.manure_actino_1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>273</v>
+      </c>
+      <c r="B327" t="s">
+        <v>11</v>
+      </c>
+      <c r="C327">
+        <v>615000</v>
+      </c>
+      <c r="D327" t="s">
+        <v>8</v>
+      </c>
+      <c r="E327">
+        <v>2</v>
+      </c>
+      <c r="F327" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_cow.manure_actino_2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>273</v>
+      </c>
+      <c r="B328" t="s">
+        <v>11</v>
+      </c>
+      <c r="C328">
+        <v>170000</v>
+      </c>
+      <c r="D328" t="s">
+        <v>8</v>
+      </c>
+      <c r="E328">
+        <v>3</v>
+      </c>
+      <c r="F328" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_cow.manure_actino_3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>273</v>
+      </c>
+      <c r="B329" t="s">
+        <v>12</v>
+      </c>
+      <c r="C329">
+        <v>51500</v>
+      </c>
+      <c r="D329" t="s">
+        <v>8</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+      <c r="F329" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_mo.pellet_actino_1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>273</v>
+      </c>
+      <c r="B330" t="s">
+        <v>12</v>
+      </c>
+      <c r="C330">
+        <v>60000</v>
+      </c>
+      <c r="D330" t="s">
+        <v>8</v>
+      </c>
+      <c r="E330">
+        <v>2</v>
+      </c>
+      <c r="F330" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_mo.pellet_actino_2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>273</v>
+      </c>
+      <c r="B331" t="s">
+        <v>12</v>
+      </c>
+      <c r="C331">
+        <v>26000</v>
+      </c>
+      <c r="D331" t="s">
+        <v>8</v>
+      </c>
+      <c r="E331">
+        <v>3</v>
+      </c>
+      <c r="F331" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_mo.pellet_actino_3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>273</v>
+      </c>
+      <c r="B332" t="s">
+        <v>13</v>
+      </c>
+      <c r="C332">
+        <v>105000</v>
+      </c>
+      <c r="D332" t="s">
+        <v>8</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_compost_actino_1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>273</v>
+      </c>
+      <c r="B333" t="s">
+        <v>13</v>
+      </c>
+      <c r="C333">
+        <v>535000</v>
+      </c>
+      <c r="D333" t="s">
+        <v>8</v>
+      </c>
+      <c r="E333">
+        <v>2</v>
+      </c>
+      <c r="F333" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_compost_actino_2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>273</v>
+      </c>
+      <c r="B334" t="s">
+        <v>13</v>
+      </c>
+      <c r="C334">
+        <v>765000</v>
+      </c>
+      <c r="D334" t="s">
+        <v>8</v>
+      </c>
+      <c r="E334">
+        <v>3</v>
+      </c>
+      <c r="F334" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_compost_actino_3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>273</v>
+      </c>
+      <c r="B335" t="s">
+        <v>14</v>
+      </c>
+      <c r="C335">
+        <v>72000</v>
+      </c>
+      <c r="D335" t="s">
+        <v>8</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+      <c r="F335" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_control.legumes_actino_1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>273</v>
+      </c>
+      <c r="B336" t="s">
+        <v>14</v>
+      </c>
+      <c r="C336">
+        <v>98500</v>
+      </c>
+      <c r="D336" t="s">
+        <v>8</v>
+      </c>
+      <c r="E336">
+        <v>2</v>
+      </c>
+      <c r="F336" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_control.legumes_actino_2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>273</v>
+      </c>
+      <c r="B337" t="s">
+        <v>14</v>
+      </c>
+      <c r="C337">
+        <v>90500</v>
+      </c>
+      <c r="D337" t="s">
+        <v>8</v>
+      </c>
+      <c r="E337">
+        <v>3</v>
+      </c>
+      <c r="F337" t="str">
+        <f t="shared" si="0"/>
+        <v>t4_control.legumes_actino_3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>273</v>
+      </c>
+      <c r="B338" t="s">
+        <v>7</v>
+      </c>
+      <c r="C338">
+        <v>109000</v>
+      </c>
+      <c r="D338" t="s">
+        <v>19</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338" t="str">
+        <f t="shared" ref="F338:F379" si="1">A338&amp;"_"&amp;B338&amp;"_"&amp;"fungi"&amp;"_"&amp;E338</f>
+        <v>t4_control_fungi_1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>273</v>
+      </c>
+      <c r="B339" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339">
+        <v>120000</v>
+      </c>
+      <c r="D339" t="s">
+        <v>19</v>
+      </c>
+      <c r="E339">
+        <v>2</v>
+      </c>
+      <c r="F339" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_control_fungi_2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>273</v>
+      </c>
+      <c r="B340" t="s">
+        <v>7</v>
+      </c>
+      <c r="C340">
+        <v>76500</v>
+      </c>
+      <c r="D340" t="s">
+        <v>19</v>
+      </c>
+      <c r="E340">
+        <v>3</v>
+      </c>
+      <c r="F340" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_control_fungi_3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>273</v>
+      </c>
+      <c r="B341" t="s">
+        <v>9</v>
+      </c>
+      <c r="C341">
+        <v>85000</v>
+      </c>
+      <c r="D341" t="s">
+        <v>19</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_control.amf_fungi_1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>273</v>
+      </c>
+      <c r="B342" t="s">
+        <v>9</v>
+      </c>
+      <c r="C342">
+        <v>98000</v>
+      </c>
+      <c r="D342" t="s">
+        <v>19</v>
+      </c>
+      <c r="E342">
+        <v>2</v>
+      </c>
+      <c r="F342" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_control.amf_fungi_2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>273</v>
+      </c>
+      <c r="B343" t="s">
+        <v>9</v>
+      </c>
+      <c r="C343">
+        <v>132000</v>
+      </c>
+      <c r="D343" t="s">
+        <v>19</v>
+      </c>
+      <c r="E343">
+        <v>3</v>
+      </c>
+      <c r="F343" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_control.amf_fungi_3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>273</v>
+      </c>
+      <c r="B344" t="s">
+        <v>10</v>
+      </c>
+      <c r="C344">
+        <v>59500</v>
+      </c>
+      <c r="D344" t="s">
+        <v>19</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+      <c r="F344" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_chicken.manure_fungi_1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>273</v>
+      </c>
+      <c r="B345" t="s">
+        <v>10</v>
+      </c>
+      <c r="C345">
+        <v>82000</v>
+      </c>
+      <c r="D345" t="s">
+        <v>19</v>
+      </c>
+      <c r="E345">
+        <v>2</v>
+      </c>
+      <c r="F345" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_chicken.manure_fungi_2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>273</v>
+      </c>
+      <c r="B346" t="s">
+        <v>10</v>
+      </c>
+      <c r="C346">
+        <v>82500</v>
+      </c>
+      <c r="D346" t="s">
+        <v>19</v>
+      </c>
+      <c r="E346">
+        <v>3</v>
+      </c>
+      <c r="F346" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_chicken.manure_fungi_3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>273</v>
+      </c>
+      <c r="B347" t="s">
+        <v>11</v>
+      </c>
+      <c r="C347">
+        <v>88500</v>
+      </c>
+      <c r="D347" t="s">
+        <v>19</v>
+      </c>
+      <c r="E347">
+        <v>1</v>
+      </c>
+      <c r="F347" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_cow.manure_fungi_1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>273</v>
+      </c>
+      <c r="B348" t="s">
+        <v>11</v>
+      </c>
+      <c r="C348">
+        <v>105000</v>
+      </c>
+      <c r="D348" t="s">
+        <v>19</v>
+      </c>
+      <c r="E348">
+        <v>2</v>
+      </c>
+      <c r="F348" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_cow.manure_fungi_2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>273</v>
+      </c>
+      <c r="B349" t="s">
+        <v>11</v>
+      </c>
+      <c r="C349">
+        <v>95000</v>
+      </c>
+      <c r="D349" t="s">
+        <v>19</v>
+      </c>
+      <c r="E349">
+        <v>3</v>
+      </c>
+      <c r="F349" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_cow.manure_fungi_3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>273</v>
+      </c>
+      <c r="B350" t="s">
+        <v>12</v>
+      </c>
+      <c r="C350">
+        <v>99500</v>
+      </c>
+      <c r="D350" t="s">
+        <v>19</v>
+      </c>
+      <c r="E350">
+        <v>1</v>
+      </c>
+      <c r="F350" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_mo.pellet_fungi_1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>273</v>
+      </c>
+      <c r="B351" t="s">
+        <v>12</v>
+      </c>
+      <c r="C351">
+        <v>123000</v>
+      </c>
+      <c r="D351" t="s">
+        <v>19</v>
+      </c>
+      <c r="E351">
+        <v>2</v>
+      </c>
+      <c r="F351" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_mo.pellet_fungi_2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>273</v>
+      </c>
+      <c r="B352" t="s">
+        <v>12</v>
+      </c>
+      <c r="C352">
+        <v>106000</v>
+      </c>
+      <c r="D352" t="s">
+        <v>19</v>
+      </c>
+      <c r="E352">
+        <v>3</v>
+      </c>
+      <c r="F352" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_mo.pellet_fungi_3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>273</v>
+      </c>
+      <c r="B353" t="s">
+        <v>13</v>
+      </c>
+      <c r="C353">
+        <v>154000</v>
+      </c>
+      <c r="D353" t="s">
+        <v>19</v>
+      </c>
+      <c r="E353">
+        <v>1</v>
+      </c>
+      <c r="F353" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_compost_fungi_1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>273</v>
+      </c>
+      <c r="B354" t="s">
+        <v>13</v>
+      </c>
+      <c r="C354">
+        <v>127000</v>
+      </c>
+      <c r="D354" t="s">
+        <v>19</v>
+      </c>
+      <c r="E354">
+        <v>2</v>
+      </c>
+      <c r="F354" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_compost_fungi_2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>273</v>
+      </c>
+      <c r="B355" t="s">
+        <v>13</v>
+      </c>
+      <c r="C355">
+        <v>89000</v>
+      </c>
+      <c r="D355" t="s">
+        <v>19</v>
+      </c>
+      <c r="E355">
+        <v>3</v>
+      </c>
+      <c r="F355" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_compost_fungi_3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>273</v>
+      </c>
+      <c r="B356" t="s">
+        <v>14</v>
+      </c>
+      <c r="C356">
+        <v>91500</v>
+      </c>
+      <c r="D356" t="s">
+        <v>19</v>
+      </c>
+      <c r="E356">
+        <v>1</v>
+      </c>
+      <c r="F356" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_control.legumes_fungi_1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>273</v>
+      </c>
+      <c r="B357" t="s">
+        <v>14</v>
+      </c>
+      <c r="C357">
+        <v>123000</v>
+      </c>
+      <c r="D357" t="s">
+        <v>19</v>
+      </c>
+      <c r="E357">
+        <v>2</v>
+      </c>
+      <c r="F357" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_control.legumes_fungi_2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>273</v>
+      </c>
+      <c r="B358" t="s">
+        <v>14</v>
+      </c>
+      <c r="C358">
+        <v>142000</v>
+      </c>
+      <c r="D358" t="s">
+        <v>19</v>
+      </c>
+      <c r="E358">
+        <v>3</v>
+      </c>
+      <c r="F358" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_control.legumes_fungi_3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>272</v>
+      </c>
+      <c r="B359" t="s">
+        <v>7</v>
+      </c>
+      <c r="C359">
+        <v>63000</v>
+      </c>
+      <c r="D359" t="s">
+        <v>19</v>
+      </c>
+      <c r="E359">
+        <v>1</v>
+      </c>
+      <c r="F359" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_control_fungi_1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>272</v>
+      </c>
+      <c r="B360" t="s">
+        <v>7</v>
+      </c>
+      <c r="C360">
+        <v>58500</v>
+      </c>
+      <c r="D360" t="s">
+        <v>19</v>
+      </c>
+      <c r="E360">
+        <v>2</v>
+      </c>
+      <c r="F360" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_control_fungi_2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>272</v>
+      </c>
+      <c r="B361" t="s">
+        <v>7</v>
+      </c>
+      <c r="C361">
+        <v>65000</v>
+      </c>
+      <c r="D361" t="s">
+        <v>19</v>
+      </c>
+      <c r="E361">
+        <v>3</v>
+      </c>
+      <c r="F361" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_control_fungi_3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>272</v>
+      </c>
+      <c r="B362" t="s">
+        <v>9</v>
+      </c>
+      <c r="C362">
+        <v>66500</v>
+      </c>
+      <c r="D362" t="s">
+        <v>19</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_control.amf_fungi_1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>272</v>
+      </c>
+      <c r="B363" t="s">
+        <v>9</v>
+      </c>
+      <c r="C363">
+        <v>97500</v>
+      </c>
+      <c r="D363" t="s">
+        <v>19</v>
+      </c>
+      <c r="E363">
+        <v>2</v>
+      </c>
+      <c r="F363" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_control.amf_fungi_2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>272</v>
+      </c>
+      <c r="B364" t="s">
+        <v>9</v>
+      </c>
+      <c r="C364">
+        <v>88500</v>
+      </c>
+      <c r="D364" t="s">
+        <v>19</v>
+      </c>
+      <c r="E364">
+        <v>3</v>
+      </c>
+      <c r="F364" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_control.amf_fungi_3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>272</v>
+      </c>
+      <c r="B365" t="s">
+        <v>10</v>
+      </c>
+      <c r="C365">
+        <v>176000</v>
+      </c>
+      <c r="D365" t="s">
+        <v>19</v>
+      </c>
+      <c r="E365">
+        <v>1</v>
+      </c>
+      <c r="F365" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_chicken.manure_fungi_1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>272</v>
+      </c>
+      <c r="B366" t="s">
+        <v>10</v>
+      </c>
+      <c r="C366">
+        <v>59500</v>
+      </c>
+      <c r="D366" t="s">
+        <v>19</v>
+      </c>
+      <c r="E366">
+        <v>2</v>
+      </c>
+      <c r="F366" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_chicken.manure_fungi_2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>272</v>
+      </c>
+      <c r="B367" t="s">
+        <v>10</v>
+      </c>
+      <c r="C367">
+        <v>232000</v>
+      </c>
+      <c r="D367" t="s">
+        <v>19</v>
+      </c>
+      <c r="E367">
+        <v>3</v>
+      </c>
+      <c r="F367" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_chicken.manure_fungi_3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>272</v>
+      </c>
+      <c r="B368" t="s">
+        <v>11</v>
+      </c>
+      <c r="C368">
+        <v>59500</v>
+      </c>
+      <c r="D368" t="s">
+        <v>19</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+      <c r="F368" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_cow.manure_fungi_1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>272</v>
+      </c>
+      <c r="B369" t="s">
+        <v>11</v>
+      </c>
+      <c r="C369">
+        <v>186000</v>
+      </c>
+      <c r="D369" t="s">
+        <v>19</v>
+      </c>
+      <c r="E369">
+        <v>2</v>
+      </c>
+      <c r="F369" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_cow.manure_fungi_2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>272</v>
+      </c>
+      <c r="B370" t="s">
+        <v>11</v>
+      </c>
+      <c r="C370">
+        <v>208000</v>
+      </c>
+      <c r="D370" t="s">
+        <v>19</v>
+      </c>
+      <c r="E370">
+        <v>3</v>
+      </c>
+      <c r="F370" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_cow.manure_fungi_3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>272</v>
+      </c>
+      <c r="B371" t="s">
+        <v>12</v>
+      </c>
+      <c r="C371">
+        <v>62500</v>
+      </c>
+      <c r="D371" t="s">
+        <v>19</v>
+      </c>
+      <c r="E371">
+        <v>1</v>
+      </c>
+      <c r="F371" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_mo.pellet_fungi_1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>272</v>
+      </c>
+      <c r="B372" t="s">
+        <v>12</v>
+      </c>
+      <c r="C372">
+        <v>116000</v>
+      </c>
+      <c r="D372" t="s">
+        <v>19</v>
+      </c>
+      <c r="E372">
+        <v>2</v>
+      </c>
+      <c r="F372" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_mo.pellet_fungi_2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>272</v>
+      </c>
+      <c r="B373" t="s">
+        <v>12</v>
+      </c>
+      <c r="C373">
+        <v>103000</v>
+      </c>
+      <c r="D373" t="s">
+        <v>19</v>
+      </c>
+      <c r="E373">
+        <v>3</v>
+      </c>
+      <c r="F373" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_mo.pellet_fungi_3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>272</v>
+      </c>
+      <c r="B374" t="s">
+        <v>13</v>
+      </c>
+      <c r="C374">
+        <v>131000</v>
+      </c>
+      <c r="D374" t="s">
+        <v>19</v>
+      </c>
+      <c r="E374">
+        <v>1</v>
+      </c>
+      <c r="F374" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_compost_fungi_1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>272</v>
+      </c>
+      <c r="B375" t="s">
+        <v>13</v>
+      </c>
+      <c r="C375">
+        <v>154000</v>
+      </c>
+      <c r="D375" t="s">
+        <v>19</v>
+      </c>
+      <c r="E375">
+        <v>2</v>
+      </c>
+      <c r="F375" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_compost_fungi_2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>272</v>
+      </c>
+      <c r="B376" t="s">
+        <v>13</v>
+      </c>
+      <c r="C376">
+        <v>120000</v>
+      </c>
+      <c r="D376" t="s">
+        <v>19</v>
+      </c>
+      <c r="E376">
+        <v>3</v>
+      </c>
+      <c r="F376" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_compost_fungi_3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>272</v>
+      </c>
+      <c r="B377" t="s">
+        <v>14</v>
+      </c>
+      <c r="C377">
+        <v>107000</v>
+      </c>
+      <c r="D377" t="s">
+        <v>19</v>
+      </c>
+      <c r="E377">
+        <v>1</v>
+      </c>
+      <c r="F377" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_control.legumes_fungi_1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>272</v>
+      </c>
+      <c r="B378" t="s">
+        <v>14</v>
+      </c>
+      <c r="C378">
+        <v>56500</v>
+      </c>
+      <c r="D378" t="s">
+        <v>19</v>
+      </c>
+      <c r="E378">
+        <v>2</v>
+      </c>
+      <c r="F378" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_control.legumes_fungi_2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>272</v>
+      </c>
+      <c r="B379" t="s">
+        <v>14</v>
+      </c>
+      <c r="C379">
+        <v>36500</v>
+      </c>
+      <c r="D379" t="s">
+        <v>19</v>
+      </c>
+      <c r="E379">
+        <v>3</v>
+      </c>
+      <c r="F379" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_control.legumes_fungi_3</v>
       </c>
     </row>
   </sheetData>
